--- a/participant_1_data.xlsx
+++ b/participant_1_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8758</v>
+        <v>3815</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -463,46 +463,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2279</v>
+        <v>3759</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4887</v>
+        <v>3247</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4326</v>
+        <v>8918</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4795</v>
+        <v>2456</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
